--- a/With Circular Polarization.xlsx
+++ b/With Circular Polarization.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_2514DF59EDB874AD9097A80F918923D7DF4A7EB5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redhe\Documents\MATLAB\DARPA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D46251-CFF8-4A6E-8252-0DE9B55850C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="140" windowWidth="19100" windowHeight="7800" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="15630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="510 mV by hand" sheetId="1" r:id="rId1"/>
@@ -58,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,12 +435,12 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E20"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -466,7 +471,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -483,7 +488,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -500,7 +505,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -517,7 +522,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40</v>
       </c>
@@ -534,7 +539,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -551,7 +556,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
@@ -568,7 +573,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
@@ -585,7 +590,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80</v>
       </c>
@@ -602,7 +607,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90</v>
       </c>
@@ -619,7 +624,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -636,7 +641,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>110</v>
       </c>
@@ -653,7 +658,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120</v>
       </c>
@@ -670,7 +675,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>130</v>
       </c>
@@ -687,7 +692,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>140</v>
       </c>
@@ -704,7 +709,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>150</v>
       </c>
@@ -721,7 +726,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>160</v>
       </c>
@@ -738,7 +743,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>170</v>
       </c>
@@ -755,7 +760,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>180</v>
       </c>
@@ -785,9 +790,9 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -818,7 +823,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -835,7 +840,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -852,7 +857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -869,7 +874,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40</v>
       </c>
@@ -886,7 +891,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -903,7 +908,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
@@ -920,7 +925,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
@@ -937,7 +942,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80</v>
       </c>
@@ -954,7 +959,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90</v>
       </c>
@@ -971,7 +976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -988,7 +993,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>110</v>
       </c>
@@ -1005,7 +1010,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120</v>
       </c>
@@ -1022,7 +1027,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>130</v>
       </c>
@@ -1039,7 +1044,7 @@
         <v>0.69399999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>140</v>
       </c>
@@ -1056,7 +1061,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>150</v>
       </c>
@@ -1073,7 +1078,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>160</v>
       </c>
@@ -1090,7 +1095,7 @@
         <v>8.82</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>170</v>
       </c>
@@ -1107,7 +1112,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>180</v>
       </c>
@@ -1133,13 +1138,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>0.14255999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1187,7 +1192,7 @@
         <v>-0.27893000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -1204,7 +1209,7 @@
         <v>-0.66635999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -1221,7 +1226,7 @@
         <v>-0.97546999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40</v>
       </c>
@@ -1238,7 +1243,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1255,7 +1260,7 @@
         <v>-1.22</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
@@ -1272,7 +1277,7 @@
         <v>-1.1100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
@@ -1289,7 +1294,7 @@
         <v>-0.88505</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80</v>
       </c>
@@ -1306,7 +1311,7 @@
         <v>-0.54954999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90</v>
       </c>
@@ -1323,7 +1328,7 @@
         <v>-0.14158999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -1340,7 +1345,7 @@
         <v>0.29104999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>110</v>
       </c>
@@ -1357,7 +1362,7 @@
         <v>0.68979999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120</v>
       </c>
@@ -1374,7 +1379,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>130</v>
       </c>
@@ -1391,7 +1396,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>140</v>
       </c>
@@ -1408,7 +1413,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>150</v>
       </c>
@@ -1425,7 +1430,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>160</v>
       </c>
@@ -1442,7 +1447,7 @@
         <v>0.89007999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>170</v>
       </c>
@@ -1459,7 +1464,7 @@
         <v>0.53205999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>180</v>
       </c>
@@ -1485,13 +1490,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -1505,7 +1510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1522,7 +1527,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1539,7 +1544,7 @@
         <v>-4.83</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -1556,7 +1561,7 @@
         <v>-10.32</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -1573,7 +1578,7 @@
         <v>-14.39</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40</v>
       </c>
@@ -1590,7 +1595,7 @@
         <v>-16.55</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1607,7 +1612,7 @@
         <v>-16.87</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
@@ -1624,7 +1629,7 @@
         <v>-15.25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
@@ -1641,7 +1646,7 @@
         <v>-11.79</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80</v>
       </c>
@@ -1658,7 +1663,7 @@
         <v>-6.9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90</v>
       </c>
@@ -1675,7 +1680,7 @@
         <v>-0.93098999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -1692,7 +1697,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>110</v>
       </c>
@@ -1709,7 +1714,7 @@
         <v>10.210000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120</v>
       </c>
@@ -1726,7 +1731,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>130</v>
       </c>
@@ -1743,7 +1748,7 @@
         <v>16.36</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>140</v>
       </c>
@@ -1760,7 +1765,7 @@
         <v>16.61</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>150</v>
       </c>
@@ -1777,7 +1782,7 @@
         <v>14.91</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>160</v>
       </c>
@@ -1794,7 +1799,7 @@
         <v>11.45</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>170</v>
       </c>
@@ -1811,7 +1816,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>180</v>
       </c>
@@ -1834,12 +1839,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2001,19 +2003,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61D19F89-6613-4776-BD4C-FD1FAFA9E8C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA1C2B0-BA1F-4C21-BCE0-6F3C258617A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9933CB51-DC6B-4FD7-B34F-D86339579E8F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9933CB51-DC6B-4FD7-B34F-D86339579E8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cc852f75-c9a6-4130-81b5-dcae9db6614d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EA1C2B0-BA1F-4C21-BCE0-6F3C258617A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61D19F89-6613-4776-BD4C-FD1FAFA9E8C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>